--- a/resources/Goods/skuGoods.xlsx
+++ b/resources/Goods/skuGoods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\eclipse-workspace\FirstTestNG\resources\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B185CA70-0552-4A36-8059-1D9235691AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0DF4A-E95E-487C-9C8B-C6E1C1B28287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>NoOfSku</t>
   </si>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>test SKU automation 2</t>
+  </si>
+  <si>
+    <t>ReceivePrice</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>SkuVariationName</t>
+  </si>
+  <si>
+    <t>SkuName</t>
+  </si>
+  <si>
+    <t>x1234</t>
+  </si>
+  <si>
+    <t>Challan NO</t>
+  </si>
+  <si>
+    <t>KA 03 HR 6692</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Mandya DC</t>
+  </si>
+  <si>
+    <t>DC</t>
   </si>
 </sst>
 </file>
@@ -121,12 +151,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,11 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,20 +463,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -447,7 +485,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -455,7 +493,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -463,7 +501,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -471,7 +509,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -479,7 +517,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -487,7 +525,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -495,7 +533,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -503,7 +541,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -511,7 +549,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -519,7 +557,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -527,7 +565,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1">
@@ -535,7 +573,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
@@ -543,7 +581,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -551,7 +589,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
@@ -559,27 +597,123 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
